--- a/data_utils/guid.xlsx
+++ b/data_utils/guid.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,94 +23,94 @@
     <t>guid</t>
   </si>
   <si>
-    <t>edb7461917814393b802b705cda814fc</t>
-  </si>
-  <si>
-    <t>a454ceb2b6b84b0d967b8811092e3547</t>
-  </si>
-  <si>
-    <t>77018c2be38e4a808a34a12d3c5417b8</t>
-  </si>
-  <si>
-    <t>163c9813cfea442ab2ca61d4a0d63ba7</t>
-  </si>
-  <si>
-    <t>363d52b6b17c4beea76acb94faaecb0a</t>
-  </si>
-  <si>
-    <t>9abee630b73c407bae3ac3e8ad1b5c22</t>
-  </si>
-  <si>
-    <t>93134866315749e2bf398e004a51f90f</t>
-  </si>
-  <si>
-    <t>b8391cbd7331438890e2ea231d94168f</t>
-  </si>
-  <si>
-    <t>425192745de64bf7be5a70c8837bfa4b</t>
-  </si>
-  <si>
-    <t>ea89b29fad404b6dbf77e4208a36b603</t>
-  </si>
-  <si>
-    <t>5c2c5cee400243c98dab7a0f8f799746</t>
-  </si>
-  <si>
-    <t>01d6b99ff1ff411bbd25039a485b81c0</t>
-  </si>
-  <si>
-    <t>470abbec564648a89c6c6bb76236158a</t>
-  </si>
-  <si>
-    <t>947e951fed404bb19c01cabbf76f2dd5</t>
-  </si>
-  <si>
-    <t>51a95cef5d2f49e59f3e8b00ec5b9ae6</t>
-  </si>
-  <si>
-    <t>1747cb4a34dd4c42a8b770712064e0c3</t>
-  </si>
-  <si>
-    <t>ad3a30cde9334107a7841091c703114e</t>
-  </si>
-  <si>
-    <t>b68750a4e70c4843bcb866c320ae029d</t>
-  </si>
-  <si>
-    <t>8daaed56768648ffb3d9d63931b5e74d</t>
-  </si>
-  <si>
-    <t>637f594262c64014b121eaf64a26a4a5</t>
-  </si>
-  <si>
-    <t>34f3a91494cf48eeae735466d7dcfc4f</t>
-  </si>
-  <si>
-    <t>696e5969b5cf46be86390558aba34e04</t>
-  </si>
-  <si>
-    <t>d36dde844af74c8ab1ec262f3e949bd9</t>
-  </si>
-  <si>
-    <t>6dc5adefa6a341c5942bcbfbf79de237</t>
-  </si>
-  <si>
-    <t>a2f05d8fc28e47ed9f270d861df69f07</t>
-  </si>
-  <si>
-    <t>12638796f1534156b554837ff8a644bf</t>
-  </si>
-  <si>
-    <t>9c9e03a461e74ce2ad2c07eb08fb6c47</t>
-  </si>
-  <si>
-    <t>6a574f03d24545c685d1c9fe179957f2</t>
-  </si>
-  <si>
-    <t>1360e1f451f649d4af9fd5f1f9799fa6</t>
-  </si>
-  <si>
-    <t>97bf3bb5dc494c6bbea95d55c4939b64</t>
+    <t>a5c80ed9f6d44905b77caa96cc7b5ad5</t>
+  </si>
+  <si>
+    <t>20f98084316b46299d613d82801e70d4</t>
+  </si>
+  <si>
+    <t>4ab3e56557df46b9be1cd2ad0396ce0e</t>
+  </si>
+  <si>
+    <t>1fe929cc39764ca7973c035900a7a8cd</t>
+  </si>
+  <si>
+    <t>81cc8e6594ac45599509b0605f908a7f</t>
+  </si>
+  <si>
+    <t>ea047360fa1a4d76af0302687a4d8bee</t>
+  </si>
+  <si>
+    <t>8376fb4703c645fe9f142b07be57b991</t>
+  </si>
+  <si>
+    <t>fee90be494e94d92bede9211270eaf03</t>
+  </si>
+  <si>
+    <t>cbf8a460e639423186b0f3c175a87494</t>
+  </si>
+  <si>
+    <t>58884def671345a786af56decd29fac1</t>
+  </si>
+  <si>
+    <t>c4c999c427464a0c90076d93af1f1d7e</t>
+  </si>
+  <si>
+    <t>23ea4a156be84d25b2ce9fc3cc4ffd3d</t>
+  </si>
+  <si>
+    <t>e19a356e99fa4a83a8001e4adb32caf1</t>
+  </si>
+  <si>
+    <t>4652eb0e0a4d498b9aca151421f5c1e7</t>
+  </si>
+  <si>
+    <t>3542ff1b37744608a1ec9dbca49584d5</t>
+  </si>
+  <si>
+    <t>8346c09739d341a78d1fa3684dd3b4e3</t>
+  </si>
+  <si>
+    <t>766ca1efcdff486794e7b3528a2e0dde</t>
+  </si>
+  <si>
+    <t>e0903148e8224742bc610d5bcb609b82</t>
+  </si>
+  <si>
+    <t>dfad2e55548742f69b94165a6b85bc38</t>
+  </si>
+  <si>
+    <t>f2fbe812604645548aa8938a01a97c6b</t>
+  </si>
+  <si>
+    <t>7618a856d97141888bec58e0fedd7b38</t>
+  </si>
+  <si>
+    <t>3519f78e3c364156a905b1885c697106</t>
+  </si>
+  <si>
+    <t>7c7a66e865c048a18ae7bf4f68d2dc97</t>
+  </si>
+  <si>
+    <t>3f94f71aeaab49189c6106f17a66f7a7</t>
+  </si>
+  <si>
+    <t>b80aa6b868ff48dd99097ab25f077c9a</t>
+  </si>
+  <si>
+    <t>72d9419971734c318689349417f858ad</t>
+  </si>
+  <si>
+    <t>73f7590ef0404d29931f2017c9505823</t>
+  </si>
+  <si>
+    <t>060c9b97478a4e9b84398d4a88c19e0f</t>
+  </si>
+  <si>
+    <t>bf08a1c4d3974feab552b846f1a2a0ab</t>
+  </si>
+  <si>
+    <t>b79355571c54416e8d2551b002593df4</t>
   </si>
 </sst>
 </file>
